--- a/Spaceship/LogFiles.xlsx
+++ b/Spaceship/LogFiles.xlsx
@@ -39,6 +39,306 @@
   <x:si>
     <x:t>X:999.33, Y:2000.51, Z:3000.48</x:t>
   </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:06:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:1000.62, Y:2000.90, Z:3000.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TemperatureReading</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:06:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-26.676104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RadiationReading</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.5951289</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.196217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:07:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:1000.30, Y:2000.19, Z:2999.42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-40.88554</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.8462619</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.788247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:08:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:999.35, Y:1999.79, Z:2999.60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80.8079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.5932939</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:08:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.824474</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:10:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:1000.64, Y:2000.86, Z:2999.31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-116.329124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:10:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1548786</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.086734</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:13:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:1000.99, Y:1999.40, Z:3000.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-55.605427</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:13:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.6774093</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.895304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:15:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:999.67, Y:1999.06, Z:2999.84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124.88253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:15:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4872566</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.849034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:16:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:1000.78, Y:2000.41, Z:3000.46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-16.283644</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2486942</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.208768</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:17:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:999.15, Y:2000.76, Z:3000.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-16.655481</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:17:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.538639</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.774436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:18:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:999.18, Y:2000.85, Z:2999.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-10.8720045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.9524333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:18:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.518484</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:19:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:999.37, Y:1999.51, Z:2999.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-68.44079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.3798678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.854576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:20:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:999.91, Y:1999.94, Z:2999.70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117.13878</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.7890956</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.790827</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:21:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:1000.02, Y:1999.80, Z:2999.31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79.03925</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4232321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:21:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.232626</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:22:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:999.96, Y:2000.64, Z:2999.65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81.06385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.0691957</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:22:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.09311</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:23:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:1000.95, Y:1999.07, Z:2999.31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79.4484</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:23:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.910292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.533578</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:24:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:999.47, Y:2000.47, Z:3000.32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103.11245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:24:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.8538224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.679055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:25:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:1000.34, Y:1999.99, Z:2999.03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54.012276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.8655279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:25:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.762858</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:26:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:1000.06, Y:2000.63, Z:3000.77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42.458775</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 20 4:26:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1711949</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.943185</x:t>
+  </x:si>
 </x:sst>
 </file>
 
@@ -73,6 +373,482 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
+    <x:row r="3">
+      <x:c r="A3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4">
+      <x:c r="A4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c r="A5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c r="A6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D6" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c r="A7" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C7" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c r="A8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C8" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c r="A9" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D9" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c r="A10" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C10" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D10" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c r="A11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B11" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C11" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D11" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c r="A12" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C12" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D12" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c r="A13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B13" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C13" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D13" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c r="A14" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C14" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D14" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c r="A15" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B15" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C15" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D15" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c r="A16" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D16" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="A17" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B17" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C17" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D17" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c r="A18" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C18" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D18" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c r="A19" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B19" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C19" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D19" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="A20" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C20" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D20" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="A21" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B21" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C21" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D21" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c r="A22" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D22" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c r="A23" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B23" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C23" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D23" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c r="A24" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C24" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D24" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c r="A25" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B25" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D25" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c r="A26" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C26" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D26" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c r="A27" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B27" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D27" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c r="A28" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C28" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D28" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c r="A29" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B29" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D29" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c r="A30" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D30" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c r="A31" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B31" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D31" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c r="A32" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D32" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c r="A33" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B33" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D33" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c r="A34" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C34" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D34" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c r="A35" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B35" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D35" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c r="A36" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D36" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>
--- a/Spaceship/LogFiles.xlsx
+++ b/Spaceship/LogFiles.xlsx
@@ -339,6 +339,12 @@
   <x:si>
     <x:t>9.943185</x:t>
   </x:si>
+  <x:si>
+    <x:t>2024 November 26 5:20:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:999.44, Y:1999.65, Z:2999.14</x:t>
+  </x:si>
 </x:sst>
 </file>
 
@@ -849,6 +855,12 @@
         <x:v>109</x:v>
       </x:c>
     </x:row>
+    <x:row r="37">
+      <x:c r="A37"/>
+      <x:c r="B37"/>
+      <x:c r="C37"/>
+      <x:c r="D37"/>
+    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>
--- a/Spaceship/LogFiles.xlsx
+++ b/Spaceship/LogFiles.xlsx
@@ -345,6 +345,249 @@
   <x:si>
     <x:t>X:999.44, Y:1999.65, Z:2999.14</x:t>
   </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:21:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:999.48, Y:2000.66, Z:2999.65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:21:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>136.98521</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:21:05 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.902139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:21:06 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.083404</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:22:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:999.52, Y:2000.03, Z:3000.55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:24:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:1000.92, Y:1999.17, Z:3000.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131.09929</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:24:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4729588</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:24:02 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.51104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:25:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:1000.60, Y:2000.69, Z:2999.07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:32:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:999.15, Y:2000.99, Z:3000.92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:32:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.097849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.5044777</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:32:02 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.767992</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:33:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:1000.54, Y:2000.79, Z:3000.71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-76.94574</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:33:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.3454381</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.001013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:34:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:999.85, Y:1999.08, Z:3000.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:34:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104.97991</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:34:02 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.6302378</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.805974</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:35:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:1000.49, Y:1999.39, Z:3000.58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52.693615</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:35:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.3751471</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.963179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:36:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:1000.99, Y:1999.92, Z:3000.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.807028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 6:36:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4509425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.837616</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 7:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:999.26, Y:2000.13, Z:2999.67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 7:00:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.578457</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.9536579</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 7:00:02 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.999365</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 7:01:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:999.08, Y:1999.38, Z:3000.75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 7:03:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:1000.93, Y:2000.18, Z:3000.03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 7:03:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115.132576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 7:03:02 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.6293942</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.972924</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 7:04:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:1000.78, Y:1999.41, Z:2999.86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 7:05:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:999.42, Y:1999.30, Z:3000.86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 7:05:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-123.28435</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 7:05:02 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1363126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 7:05:03 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.421464</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 7:06:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:999.65, Y:2000.43, Z:2999.29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 27 7:10:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X:999.01, Y:1999.02, Z:2999.15</x:t>
+  </x:si>
 </x:sst>
 </file>
 
@@ -856,10 +1099,332 @@
       </x:c>
     </x:row>
     <x:row r="37">
-      <x:c r="A37"/>
-      <x:c r="B37"/>
-      <x:c r="C37"/>
-      <x:c r="D37"/>
+      <x:c r="A37" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B37" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C37" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D37" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c r="A38" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B38" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C38" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D38" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c r="A39" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B39" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C39" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D39" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c r="A40" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B40" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C40" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D40" t="s">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c r="A41" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C41" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D41" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c r="A42" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B42" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C42" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D42" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c r="A43" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B43" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C43" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D43" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c r="A44" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B44" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C44" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D44" t="s">
+        <x:v>139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c r="A45" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B45" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C45" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D45" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c r="A46" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B46" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C46" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D46" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c r="A47" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B47" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C47" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D47" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c r="A48" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B48" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C48" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D48" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c r="A49" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B49" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C49" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D49" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c r="A50" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B50" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C50" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D50" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c r="A51" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B51" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C51" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D51" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c r="A52" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B52" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C52" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D52" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c r="A53" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B53" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C53" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D53" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c r="A54" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B54" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C54" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D54" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c r="A55" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B55" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C55" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D55" t="s">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c r="A56" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B56" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C56" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D56" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c r="A57" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B57" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="C57" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D57" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c r="A58" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B58" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C58" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D58" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c r="A59" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B59" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C59" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D59" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c r="A60"/>
+      <x:c r="B60"/>
+      <x:c r="C60"/>
+      <x:c r="D60"/>
     </x:row>
   </x:sheetData>
 </x:worksheet>
